--- a/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.9379042663700279</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8751028980082798</v>
+        <v>0.8751028980082797</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8976254776031982</v>
+        <v>0.8979618751062165</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8959837922347751</v>
+        <v>0.8939086495019147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8882595355627992</v>
+        <v>0.8901329863502679</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8132582321574193</v>
+        <v>0.8164227362240241</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9269991548665345</v>
+        <v>0.9261586819161061</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9373157849213702</v>
+        <v>0.9357586369248526</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9424417402810973</v>
+        <v>0.9437545807969555</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8783419283921708</v>
+        <v>0.8772609578699159</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9173432761416723</v>
+        <v>0.9199137822151666</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.923848453369274</v>
+        <v>0.9236428100789403</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9264926578663276</v>
+        <v>0.9247769321026829</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8581263521935203</v>
+        <v>0.8590590512002301</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9329423186602013</v>
+        <v>0.9322804718443387</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9334347885604515</v>
+        <v>0.9323868469127127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9316958036797839</v>
+        <v>0.931890500520364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8779547229769309</v>
+        <v>0.8748045246279699</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9529779711215211</v>
+        <v>0.9529175296017022</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9604494930304225</v>
+        <v>0.9605391387394728</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9690228739601309</v>
+        <v>0.9694380706007958</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.912842641493028</v>
+        <v>0.9116480324595968</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9401246561233115</v>
+        <v>0.9407047336014189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9452123967481453</v>
+        <v>0.9458229014220173</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9492187380350403</v>
+        <v>0.9488222398560364</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8893057378141608</v>
+        <v>0.8901951310282004</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9121732159453051</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.873596335204712</v>
+        <v>0.8735963352047121</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9372714925537988</v>
@@ -821,7 +821,7 @@
         <v>0.9371794009660683</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.8870861291442209</v>
+        <v>0.8870861291442207</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9335731971407235</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9162791645297845</v>
+        <v>0.9158797946552769</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9287970519218912</v>
+        <v>0.9284227502227667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8977227952813109</v>
+        <v>0.8982962113208944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8551172759222183</v>
+        <v>0.8559840955204034</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.924440658758491</v>
+        <v>0.9245805073821248</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9239167544545808</v>
+        <v>0.9241830733108022</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9266463040885853</v>
+        <v>0.9257818237042319</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8727520293059552</v>
+        <v>0.8741930977066011</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9245757666660701</v>
+        <v>0.9250298669344472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9299450362706011</v>
+        <v>0.9307601259591844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9153572309145401</v>
+        <v>0.9157313757841229</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8690892052424659</v>
+        <v>0.8685925241230592</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9423322341961833</v>
+        <v>0.9420778402433536</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9506823720229488</v>
+        <v>0.9504983762194376</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9245760192183251</v>
+        <v>0.9235557809790136</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8884920935824525</v>
+        <v>0.8903050612782313</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.948753374274107</v>
+        <v>0.9481328901822265</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9474214270239044</v>
+        <v>0.9481191939531024</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9475641983690243</v>
+        <v>0.948348531960252</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8980601151419302</v>
+        <v>0.8994885216342438</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9420910800512003</v>
+        <v>0.9427102370715243</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9462011292278261</v>
+        <v>0.9467750921902177</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9323880995151361</v>
+        <v>0.932999760981297</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8896638848734886</v>
+        <v>0.8901642260894561</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.945265813152978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8866340384918378</v>
+        <v>0.8866340384918376</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9680516181927904</v>
@@ -969,7 +969,7 @@
         <v>0.9345605259378292</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8897524482274696</v>
+        <v>0.8897524482274694</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.926600613698137</v>
+        <v>0.9272064499927225</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9115130895643905</v>
+        <v>0.9149085066154958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9210706710340972</v>
+        <v>0.9222102537682022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8591536980163732</v>
+        <v>0.8590608769992639</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9492742569707282</v>
+        <v>0.949372320532069</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9099911831090215</v>
+        <v>0.9157542759421441</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.895689955754103</v>
+        <v>0.9009453013394599</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8680834579265448</v>
+        <v>0.8699362546900282</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9433631537262307</v>
+        <v>0.9418718567303384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9221509050258363</v>
+        <v>0.923533598253774</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9183635544564468</v>
+        <v>0.9183229401155157</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8731624010117066</v>
+        <v>0.8719352815615218</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9653942832820533</v>
+        <v>0.965282596447062</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9604451909039661</v>
+        <v>0.9618658811443849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9630074619637073</v>
+        <v>0.9634989008917239</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9109713024087304</v>
+        <v>0.9101314579014479</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9812642625727537</v>
+        <v>0.9822645017693742</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9578182430803929</v>
+        <v>0.9596970406978391</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.943911310311047</v>
+        <v>0.9435498477368772</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9108788311161137</v>
+        <v>0.9117900473641276</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9690631573512645</v>
+        <v>0.9684343471279178</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9545031439032361</v>
+        <v>0.9556795897604768</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.950287250151772</v>
+        <v>0.9487519520401004</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9050538094716354</v>
+        <v>0.9051238552242845</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9174278238082303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8718137519021018</v>
+        <v>0.8718137519021019</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9431245864588624</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9193922347015256</v>
+        <v>0.9183905642118716</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9243580219880303</v>
+        <v>0.9245746962540166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9066879683523362</v>
+        <v>0.9075814694534168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8593439823702089</v>
+        <v>0.8586039126318495</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9348332449852381</v>
+        <v>0.9345997695830968</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9337928862810086</v>
+        <v>0.9327198514825439</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9321893474160154</v>
+        <v>0.9328721633701461</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8807252301638848</v>
+        <v>0.8805794985239227</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9300440490684013</v>
+        <v>0.9303036556572525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9317068412241337</v>
+        <v>0.931304804942319</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9228663882332175</v>
+        <v>0.9227530108315435</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8729159458905081</v>
+        <v>0.8736695310808317</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9380101242385006</v>
+        <v>0.9362691151065636</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9426161854381457</v>
+        <v>0.9423427696660327</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.926555026108462</v>
+        <v>0.9269157929512784</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8848322962873016</v>
+        <v>0.8843585904554018</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9506658952196159</v>
+        <v>0.9511167037688082</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9493180745192041</v>
+        <v>0.9489043211616748</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9487321591834242</v>
+        <v>0.9477488553182072</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8991627981832968</v>
+        <v>0.9001914233559754</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9420879043686058</v>
+        <v>0.9423792449104453</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9437684515570344</v>
+        <v>0.9427871554054017</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9354699626148961</v>
+        <v>0.9353682755400491</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8892314448928188</v>
+        <v>0.8888970880656666</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>926101</v>
+        <v>926448</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>873264</v>
+        <v>871242</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>668322</v>
+        <v>669732</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>470493</v>
+        <v>472324</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1219109</v>
+        <v>1218003</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1252035</v>
+        <v>1249955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>936579</v>
+        <v>937883</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>722030</v>
+        <v>721142</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2152853</v>
+        <v>2158886</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2134468</v>
+        <v>2133993</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1617817</v>
+        <v>1614821</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1201863</v>
+        <v>1203170</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>962538</v>
+        <v>961855</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>909766</v>
+        <v>908744</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>701003</v>
+        <v>701150</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>507922</v>
+        <v>506100</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1253274</v>
+        <v>1253194</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1282936</v>
+        <v>1283056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>962995</v>
+        <v>963407</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>750391</v>
+        <v>749409</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2206317</v>
+        <v>2207679</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>2183827</v>
+        <v>2185238</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1657501</v>
+        <v>1656809</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1245532</v>
+        <v>1246778</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1550831</v>
+        <v>1550155</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1823269</v>
+        <v>1822535</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1859574</v>
+        <v>1860762</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1907396</v>
+        <v>1909329</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1466662</v>
+        <v>1466884</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1621301</v>
+        <v>1621768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1840518</v>
+        <v>1838801</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1895087</v>
+        <v>1898216</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3031750</v>
+        <v>3033239</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3457403</v>
+        <v>3460433</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3714198</v>
+        <v>3715717</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3825695</v>
+        <v>3823509</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1594927</v>
+        <v>1594496</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1866231</v>
+        <v>1865870</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1915199</v>
+        <v>1913086</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1981840</v>
+        <v>1985884</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1505235</v>
+        <v>1504251</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1662547</v>
+        <v>1663772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1882065</v>
+        <v>1883623</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1950041</v>
+        <v>1953142</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3089184</v>
+        <v>3091214</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>3517840</v>
+        <v>3519974</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3783304</v>
+        <v>3785786</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>3916264</v>
+        <v>3918466</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>510935</v>
+        <v>511269</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>438603</v>
+        <v>440237</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>503721</v>
+        <v>504344</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>611363</v>
+        <v>611297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>452246</v>
+        <v>452292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>416528</v>
+        <v>419165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>491859</v>
+        <v>494745</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>637935</v>
+        <v>639296</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>969608</v>
+        <v>968075</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>865815</v>
+        <v>867113</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1006551</v>
+        <v>1006507</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1262998</v>
+        <v>1261223</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>532326</v>
+        <v>532265</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>462148</v>
+        <v>462832</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>526655</v>
+        <v>526924</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>648235</v>
+        <v>647638</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>467486</v>
+        <v>467963</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>438419</v>
+        <v>439279</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>518339</v>
+        <v>518141</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>669384</v>
+        <v>670054</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>996022</v>
+        <v>995376</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>896191</v>
+        <v>897295</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1041540</v>
+        <v>1039858</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1309128</v>
+        <v>1309229</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3011617</v>
+        <v>3008336</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3160258</v>
+        <v>3160999</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3056188</v>
+        <v>3059199</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3025478</v>
+        <v>3022872</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3157927</v>
+        <v>3157139</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3313383</v>
+        <v>3309575</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3289820</v>
+        <v>3292230</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3283614</v>
+        <v>3283071</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6188258</v>
+        <v>6189986</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6491365</v>
+        <v>6488564</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6367639</v>
+        <v>6366856</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6327759</v>
+        <v>6333222</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3072603</v>
+        <v>3066900</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3222680</v>
+        <v>3221746</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3123154</v>
+        <v>3124370</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3115214</v>
+        <v>3113546</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3211411</v>
+        <v>3212934</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3368471</v>
+        <v>3367003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>3348202</v>
+        <v>3344732</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3352355</v>
+        <v>3356190</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6268395</v>
+        <v>6270333</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>6575400</v>
+        <v>6568563</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>6454601</v>
+        <v>6453900</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>6446030</v>
+        <v>6443606</v>
       </c>
     </row>
     <row r="20">
